--- a/wksp_ce/res/LOG Protocolos Canalizado MMI.xlsx
+++ b/wksp_ce/res/LOG Protocolos Canalizado MMI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07d9230a41b251c3/SNN4008/MMI/Protocolos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicea\PycharmProjects\Protocol_Workshop\wksp_ce\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4920" documentId="13_ncr:1_{095B5DD9-3015-4ACE-B820-830FCF92CF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08AC1E8C-07EC-4435-A670-3F043818E38F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA8E2D6-8FE1-47B7-9F3D-8B38F9181FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{463E4E2F-D962-4E0A-9EE6-7CC27A6861E4}"/>
   </bookViews>
@@ -1565,8 +1565,8 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,9 +1668,6 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1695,9 +1692,6 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1722,9 +1716,6 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1776,9 +1767,6 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1803,9 +1791,6 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1830,9 +1815,6 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1879,9 +1861,6 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1901,9 +1880,6 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1923,9 +1899,6 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1967,9 +1940,6 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1989,11 +1959,8 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2011,11 +1978,8 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2033,11 +1997,8 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2055,11 +2016,8 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2077,11 +2035,8 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2099,11 +2054,8 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2121,11 +2073,8 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2143,11 +2092,8 @@
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2162,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2177,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2192,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2207,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2222,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2237,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2252,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2267,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
